--- a/biology/Botanique/Kadarka/Kadarka.xlsx
+++ b/biology/Botanique/Kadarka/Kadarka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Gamza, aussi appelé Kadarka, Skadarka, Mékish, Tchétéréshka, est un vieux cépage de raisin noir originaire de la partie orientale des Balkans (probablement du nord de la Bulgarie). Il est aussi planté dans le nord-est de la Serbie (sous le nom "Skadarka") ainsi qu'en Roumanie, Hongrie et Moldavie (sous le nom "Kadarka").
@@ -509,112 +521,18 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Caractéristiques phénologiques</t>
+          <t>Potentiel œnologique</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Débourrement
-Floraison
-Véraison
-Maturité</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Kadarka</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Kadarka</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Caractéristiques culturales</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Port
-Vigueur
-Fertilité
-Taille et mode de conduite
-Productivité</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Kadarka</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Kadarka</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Exigences culturales</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Climatique
-Pédologique</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Kadarka</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Kadarka</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Potentiel œnologique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alcoolique
-Aromatique
-Le cépage Gamza donne des vins au goût particulier qui ont souvent une amertume assez présente et le goût rappelle celui des vins demi-secs.
+          <t>Aromatique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cépage Gamza donne des vins au goût particulier qui ont souvent une amertume assez présente et le goût rappelle celui des vins demi-secs.
 </t>
         </is>
       </c>
